--- a/data/old_posteriors/no_elementary_skills/complex_model/noleak/questions-skill-model2a_noleak.xlsx
+++ b/data/old_posteriors/no_elementary_skills/complex_model/noleak/questions-skill-model2a_noleak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/SoftCOM(original)/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/old_posteriors/no_elementary_skills/complex_model/noleak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED3F51-16DE-D54F-9AFD-AF058304C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08041ADB-956E-8846-97BD-E6C4333C50D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -345,15 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,6 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,10 +692,10 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M4"/>
+      <selection pane="bottomRight" activeCell="M110" sqref="M110:M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,32 +708,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="19">
         <v>0</v>
       </c>
@@ -764,9 +764,9 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="18" t="s">
         <v>13</v>
       </c>
@@ -797,9 +797,9 @@
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1066,7 +1066,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="28">
         <v>2</v>
       </c>
       <c r="B14" s="4">
@@ -1224,7 +1224,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <v>3</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5">
         <v>4</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="5">
         <v>5</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5">
         <v>6</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="5">
         <v>7</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="5">
         <v>8</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="6">
         <v>9</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="27">
         <v>3</v>
       </c>
       <c r="B23" s="5">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="5">
         <v>4</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="5">
         <v>5</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="5">
         <v>6</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="5">
         <v>7</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="5">
         <v>8</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="5">
         <v>9</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="A32" s="28">
         <v>4</v>
       </c>
       <c r="B32" s="4">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="5">
         <v>2</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="5">
         <v>3</v>
       </c>
@@ -2008,7 +2008,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="5">
         <v>4</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="5">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="5">
         <v>6</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="5">
         <v>7</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="5">
         <v>8</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="6">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
+      <c r="A41" s="27">
         <v>5</v>
       </c>
       <c r="B41" s="5">
@@ -2283,7 +2283,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="5">
         <v>4</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="5">
         <v>5</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="5">
         <v>6</v>
       </c>
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="5">
         <v>7</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="5">
         <v>8</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="5">
         <v>9</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
+      <c r="A50" s="28">
         <v>6</v>
       </c>
       <c r="B50" s="4">
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="5">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="5">
         <v>4</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="5">
         <v>5</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="5">
         <v>6</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="5">
         <v>7</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="5">
         <v>8</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="6">
         <v>9</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24">
+      <c r="A59" s="27">
         <v>7</v>
       </c>
       <c r="B59" s="5">
@@ -2989,7 +2989,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="5">
         <v>2</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="5">
         <v>3</v>
       </c>
@@ -3067,7 +3067,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="5">
         <v>4</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="5">
         <v>5</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="5">
         <v>6</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="5">
         <v>7</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="5">
         <v>8</v>
       </c>
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="5">
         <v>9</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23">
+      <c r="A68" s="28">
         <v>8</v>
       </c>
       <c r="B68" s="4">
@@ -3342,7 +3342,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="5">
         <v>2</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="5">
         <v>3</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="5">
         <v>4</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="5">
         <v>5</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="5">
         <v>6</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="5">
         <v>7</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="5">
         <v>8</v>
       </c>
@@ -3615,7 +3615,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="6">
         <v>9</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="24">
+      <c r="A77" s="27">
         <v>9</v>
       </c>
       <c r="B77" s="5">
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="5">
         <v>2</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="5">
         <v>3</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="3" t="s">
         <v>6</v>
@@ -3787,12 +3787,10 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M80" s="16"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -3806,12 +3804,10 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M81" s="16"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="3" t="s">
         <v>8</v>
@@ -3825,12 +3821,10 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M82" s="16"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="5">
         <v>7</v>
       </c>
@@ -3869,7 +3863,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="5">
         <v>8</v>
       </c>
@@ -3908,7 +3902,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="5">
         <v>9</v>
       </c>
@@ -3947,7 +3941,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="23">
+      <c r="A86" s="28">
         <v>10</v>
       </c>
       <c r="B86" s="4">
@@ -3988,7 +3982,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="5">
         <v>2</v>
       </c>
@@ -4027,7 +4021,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="5">
         <v>3</v>
       </c>
@@ -4066,7 +4060,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="5">
         <v>4</v>
       </c>
@@ -4105,7 +4099,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="5">
         <v>5</v>
       </c>
@@ -4144,7 +4138,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="5">
         <v>6</v>
       </c>
@@ -4183,7 +4177,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="5">
         <v>7</v>
       </c>
@@ -4222,7 +4216,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="5">
         <v>8</v>
       </c>
@@ -4261,7 +4255,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="25"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="6">
         <v>9</v>
       </c>
@@ -4300,7 +4294,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="24">
+      <c r="A95" s="27">
         <v>11</v>
       </c>
       <c r="B95" s="5">
@@ -4341,7 +4335,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
+      <c r="A96" s="27"/>
       <c r="B96" s="5">
         <v>2</v>
       </c>
@@ -4380,7 +4374,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="5">
         <v>3</v>
       </c>
@@ -4419,7 +4413,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
+      <c r="A98" s="27"/>
       <c r="B98" s="5">
         <v>4</v>
       </c>
@@ -4458,7 +4452,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
+      <c r="A99" s="27"/>
       <c r="B99" s="5">
         <v>5</v>
       </c>
@@ -4497,7 +4491,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
+      <c r="A100" s="27"/>
       <c r="B100" s="5">
         <v>6</v>
       </c>
@@ -4536,7 +4530,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
+      <c r="A101" s="27"/>
       <c r="B101" s="5">
         <v>7</v>
       </c>
@@ -4575,7 +4569,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
+      <c r="A102" s="27"/>
       <c r="B102" s="5">
         <v>8</v>
       </c>
@@ -4614,7 +4608,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
+      <c r="A103" s="27"/>
       <c r="B103" s="5">
         <v>9</v>
       </c>
@@ -4653,7 +4647,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="23">
+      <c r="A104" s="28">
         <v>12</v>
       </c>
       <c r="B104" s="4">
@@ -4694,7 +4688,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
+      <c r="A105" s="27"/>
       <c r="B105" s="5">
         <v>2</v>
       </c>
@@ -4733,7 +4727,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
+      <c r="A106" s="27"/>
       <c r="B106" s="5">
         <v>3</v>
       </c>
@@ -4772,7 +4766,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
+      <c r="A107" s="27"/>
       <c r="B107" s="5">
         <v>4</v>
       </c>
@@ -4811,7 +4805,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
+      <c r="A108" s="27"/>
       <c r="B108" s="5">
         <v>5</v>
       </c>
@@ -4850,7 +4844,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
+      <c r="A109" s="27"/>
       <c r="B109" s="5">
         <v>6</v>
       </c>
@@ -4889,7 +4883,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
+      <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="10" t="s">
         <v>9</v>
@@ -4903,12 +4897,10 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
-      <c r="M110" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M110" s="16"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
+      <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="10" t="s">
         <v>10</v>
@@ -4922,12 +4914,10 @@
       <c r="J111" s="7"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
-      <c r="M111" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M111" s="16"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="25"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="6"/>
       <c r="C112" s="11" t="s">
         <v>11</v>
@@ -4941,28 +4931,26 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="14"/>
-      <c r="M112" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M112" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A104:A112"/>
     <mergeCell ref="A59:A67"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="A41:A49"/>
     <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="A95:A103"/>
-    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:L112">
     <cfRule type="colorScale" priority="2">
